--- a/budzet.xlsx
+++ b/budzet.xlsx
@@ -17,10 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -585,7 +581,7 @@
         <v>12890.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="I3" t="n">
         <v>12890.4</v>
@@ -13524,19 +13520,25 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>5172901698</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5172901698</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45695</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>10712.07</v>
@@ -13573,11 +13575,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45726</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>7945.8</v>
@@ -13614,11 +13620,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45787</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>7996.23</v>
@@ -13653,11 +13663,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45817</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45817</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>2204.16</v>
@@ -13694,11 +13708,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45730</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>3772.41</v>
@@ -13735,11 +13753,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45757</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>1403.43</v>
@@ -13776,11 +13798,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45787</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>2954.46</v>
@@ -13817,11 +13843,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45791</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45790</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>6717.03</v>
@@ -13858,11 +13888,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45832</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>697.41</v>
@@ -13899,11 +13933,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>45679</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>45684</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>6103.26</v>
@@ -13930,19 +13968,25 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>5196919839</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5196919839</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>45723</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>4856.04</v>
@@ -13979,11 +14023,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>45761</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>5442.75</v>
@@ -14020,11 +14068,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>45791</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>3697.38</v>
@@ -14061,11 +14113,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>45807</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45817</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>10692.39</v>
@@ -14102,11 +14158,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>45824</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>45824</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>6960.57</v>
@@ -14143,11 +14203,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45666</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>6531.3</v>
@@ -14184,11 +14248,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>45696</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>1397.28</v>
@@ -14215,19 +14283,25 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>5219188259</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5219188259</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>45754</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>2878.2</v>
@@ -14254,19 +14328,25 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>5247610493</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5247610493</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>45784</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>3355.44</v>
@@ -14303,11 +14383,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45822</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>1762.59</v>
@@ -14344,11 +14428,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45813</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>1585.47</v>
@@ -14385,11 +14473,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45674</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>9580.469999999999</v>
@@ -14426,11 +14518,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>45703</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>4157.4</v>
@@ -14467,11 +14563,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>45726</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>9378.75</v>
@@ -14508,11 +14608,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45777</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>2046.72</v>
@@ -14539,19 +14643,25 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
-        <v>5274588812</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5274588812</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>45815</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>8951.940000000001</v>
@@ -14588,11 +14698,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>45818</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>45818</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="F28" t="n">
         <v>6265.62</v>
@@ -14629,11 +14743,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>45664</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>45664</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
       </c>
       <c r="F29" t="n">
         <v>34.44</v>
@@ -14670,11 +14788,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>45698</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>3134.04</v>
@@ -14711,11 +14833,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>45740</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
       </c>
       <c r="F31" t="n">
         <v>11185.62</v>
@@ -14752,11 +14878,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>45759</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
       </c>
       <c r="F32" t="n">
         <v>3189.39</v>
@@ -14793,11 +14923,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>45783</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>45790</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
       </c>
       <c r="F33" t="n">
         <v>6419.37</v>
@@ -14834,11 +14968,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>45821</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>45835</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
       </c>
       <c r="F34" t="n">
         <v>9261.9</v>
@@ -14875,11 +15013,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>45659</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45659</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>345.63</v>
@@ -14916,11 +15058,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45703</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>11592.75</v>
@@ -14957,11 +15103,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45731</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>5856.03</v>
@@ -14998,11 +15148,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45748</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
       </c>
       <c r="F38" t="n">
         <v>6512.85</v>
@@ -15039,11 +15193,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>45799</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45799</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
       </c>
       <c r="F39" t="n">
         <v>12082.29</v>
@@ -15080,11 +15238,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45818</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>8499.299999999999</v>
@@ -15121,11 +15283,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>45685</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45692</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>2325.93</v>
@@ -15162,11 +15328,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>45699</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45706</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>2605.14</v>
@@ -15203,11 +15373,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>45720</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45726</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F43" t="n">
         <v>2495.67</v>
@@ -15244,11 +15418,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45762</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
       </c>
       <c r="F44" t="n">
         <v>9639.51</v>
@@ -15285,11 +15463,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>45779</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45789</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>9058.950000000001</v>
@@ -15326,11 +15508,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45818</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="F46" t="n">
         <v>7852.32</v>
@@ -15367,11 +15553,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45667</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F47" t="n">
         <v>2460</v>
@@ -15408,11 +15598,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>45698</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45712</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
       </c>
       <c r="F48" t="n">
         <v>1827.78</v>
@@ -15449,11 +15643,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>45745</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45745</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
       </c>
       <c r="F49" t="n">
         <v>9360.299999999999</v>
@@ -15490,11 +15688,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45776</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
       </c>
       <c r="F50" t="n">
         <v>9851.07</v>
@@ -15531,11 +15733,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>45780</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45792</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
       </c>
       <c r="F51" t="n">
         <v>10910.1</v>
@@ -15572,11 +15778,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45811</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
       </c>
       <c r="F52" t="n">
         <v>7193.04</v>
@@ -15613,11 +15823,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>45685</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45692</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
       </c>
       <c r="F53" t="n">
         <v>6388.62</v>
@@ -15654,11 +15868,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>45713</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45720</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
       </c>
       <c r="F54" t="n">
         <v>11004.81</v>
@@ -15695,11 +15913,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>45717</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45717</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>5076.21</v>
@@ -15736,11 +15958,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45763</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
       </c>
       <c r="F56" t="n">
         <v>10509.12</v>
@@ -15777,11 +16003,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45787</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F57" t="n">
         <v>2142.66</v>
@@ -15818,11 +16048,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>45825</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45825</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
       </c>
       <c r="F58" t="n">
         <v>4043.01</v>
@@ -15859,11 +16093,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45677</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
       </c>
       <c r="F59" t="n">
         <v>5453.82</v>
@@ -15900,11 +16138,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45723</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>5507.94</v>
@@ -15941,11 +16183,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>45718</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>45732</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>44.28</v>
@@ -15982,11 +16228,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>45775</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>45782</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
       </c>
       <c r="F62" t="n">
         <v>295.2</v>
@@ -16023,11 +16273,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>45806</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>45806</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>11448.84</v>
@@ -16064,11 +16318,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>45816</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>45816</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
       </c>
       <c r="F64" t="n">
         <v>981.54</v>
@@ -16105,11 +16363,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>45671</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>45671</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="F65" t="n">
         <v>2136.51</v>
@@ -16146,11 +16408,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>45712</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>7274.22</v>
@@ -16187,11 +16453,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>45740</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
       </c>
       <c r="F67" t="n">
         <v>473.55</v>
@@ -16228,11 +16498,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>45771</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
       </c>
       <c r="F68" t="n">
         <v>8844.93</v>
@@ -16269,11 +16543,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>45778</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>45792</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
       </c>
       <c r="F69" t="n">
         <v>7950.72</v>
@@ -16310,11 +16588,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>45813</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
       </c>
       <c r="F70" t="n">
         <v>7627.23</v>
@@ -16351,11 +16633,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>45658</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
       <c r="F71" t="n">
         <v>11514.03</v>
@@ -16392,11 +16678,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>45701</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>845.01</v>
@@ -16433,11 +16723,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>45741</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
       </c>
       <c r="F73" t="n">
         <v>9799.41</v>
@@ -16474,11 +16768,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>45751</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
       </c>
       <c r="F74" t="n">
         <v>5778.54</v>
@@ -16515,11 +16813,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>45811</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
       </c>
       <c r="F75" t="n">
         <v>11256.96</v>
@@ -16556,11 +16858,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>45852</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
       </c>
       <c r="F76" t="n">
         <v>3977.82</v>
@@ -16597,11 +16903,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>45688</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
       </c>
       <c r="F77" t="n">
         <v>5298.84</v>
@@ -16638,11 +16948,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>45696</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
       </c>
       <c r="F78" t="n">
         <v>12002.34</v>
@@ -16679,11 +16993,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>45717</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>45717</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>8719.469999999999</v>
@@ -16720,11 +17038,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>45765</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>45765</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>10777.26</v>
@@ -16761,11 +17083,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
-        <v>45789</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>45803</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
       </c>
       <c r="F81" t="n">
         <v>11591.52</v>
@@ -16802,11 +17128,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>45810</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
       </c>
       <c r="F82" t="n">
         <v>551.04</v>
@@ -16843,11 +17173,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>45684</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
       </c>
       <c r="F83" t="n">
         <v>9654.27</v>
@@ -16884,11 +17218,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>45689</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
       </c>
       <c r="F84" t="n">
         <v>1634.67</v>
@@ -16925,11 +17263,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>45695</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>29.52</v>
@@ -16966,11 +17308,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>45744</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>5142.63</v>
@@ -17007,11 +17353,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n">
-        <v>45765</v>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>45765</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
       </c>
       <c r="F87" t="n">
         <v>7931.04</v>
@@ -17048,11 +17398,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>45778</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>45778</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>2025.81</v>
@@ -17079,19 +17433,25 @@
       <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
-        <v>3621250616210511</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3621250616210511</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>45824</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>45831</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
       </c>
       <c r="F89" t="n">
         <v>5932.29</v>
@@ -17128,11 +17488,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>45666</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>6045.45</v>
@@ -17169,11 +17533,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n">
-        <v>45696</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>45696</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>10213.92</v>
@@ -17210,11 +17578,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
-        <v>45700</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>45700</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
       </c>
       <c r="F92" t="n">
         <v>10978.98</v>
@@ -17251,11 +17623,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>45744</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
       </c>
       <c r="F93" t="n">
         <v>1917.57</v>
@@ -17292,11 +17668,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>45748</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
       </c>
       <c r="F94" t="n">
         <v>8169.66</v>
@@ -17333,11 +17713,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>45795</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
       </c>
       <c r="F95" t="n">
         <v>1579.32</v>
@@ -17364,19 +17748,25 @@
       <c r="A96" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
-        <v>3622250602542311</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3622250602542311</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>45817</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>11425.47</v>
@@ -17413,11 +17803,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
-        <v>45682</v>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>45682</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
       </c>
       <c r="F97" t="n">
         <v>12265.56</v>
@@ -17454,17 +17848,21 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
-        <v>45707</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>45707</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
       </c>
       <c r="F98" t="n">
-        <v>8776.049999999999</v>
+        <v>25.22</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H98" t="n">
         <v>8776.049999999999</v>
@@ -17495,11 +17893,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>45729</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>9223.77</v>
@@ -17536,11 +17938,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
-        <v>45776</v>
-      </c>
-      <c r="E100" s="2" t="n">
-        <v>45776</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
       </c>
       <c r="F100" t="n">
         <v>10787.1</v>
@@ -17577,11 +17983,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>45789</v>
-      </c>
-      <c r="E101" s="2" t="n">
-        <v>45789</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
       </c>
       <c r="F101" t="n">
         <v>5341.89</v>
@@ -17618,11 +18028,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>45846</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
       </c>
       <c r="F102" t="n">
         <v>10023.27</v>
@@ -17659,11 +18073,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>45686</v>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>45686</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
       </c>
       <c r="F103" t="n">
         <v>3151.26</v>
@@ -17700,11 +18118,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>45715</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
       </c>
       <c r="F104" t="n">
         <v>147.6</v>
@@ -17741,11 +18163,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>45716</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F105" t="n">
         <v>5462.43</v>
@@ -17782,11 +18208,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>45736</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
       </c>
       <c r="F106" t="n">
         <v>6632.16</v>
@@ -17823,11 +18253,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>45758</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
       </c>
       <c r="F107" t="n">
         <v>8534.969999999999</v>
@@ -17864,11 +18298,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>45782</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
       </c>
       <c r="F108" t="n">
         <v>1044.27</v>
@@ -17905,11 +18343,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="E109" s="2" t="n">
-        <v>45833</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
       </c>
       <c r="F109" t="n">
         <v>1805.64</v>
@@ -17946,11 +18388,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>45665</v>
-      </c>
-      <c r="E110" s="2" t="n">
-        <v>45665</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
       </c>
       <c r="F110" t="n">
         <v>9082.32</v>
@@ -17977,19 +18423,25 @@
       <c r="A111" t="n">
         <v>110</v>
       </c>
-      <c r="B111" t="n">
-        <v>9.900306005700049e+21</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>9900306005700049371136</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>45699</v>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>45699</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
       </c>
       <c r="F111" t="n">
         <v>3710.91</v>
@@ -18026,11 +18478,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
-        <v>45717</v>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>45724</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
       </c>
       <c r="F112" t="n">
         <v>5662.92</v>
@@ -18067,11 +18523,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
-        <v>45759</v>
-      </c>
-      <c r="E113" s="2" t="n">
-        <v>45759</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
       </c>
       <c r="F113" t="n">
         <v>3717.06</v>
@@ -18108,11 +18568,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>45804</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
       </c>
       <c r="F114" t="n">
         <v>7565.73</v>
@@ -18149,11 +18613,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>45823</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
       </c>
       <c r="F115" t="n">
         <v>4280.4</v>
@@ -18190,11 +18658,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
-        <v>45687</v>
-      </c>
-      <c r="E116" s="2" t="n">
-        <v>45687</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
       </c>
       <c r="F116" t="n">
         <v>8870.76</v>
@@ -18231,11 +18703,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
-        <v>45706</v>
-      </c>
-      <c r="E117" s="2" t="n">
-        <v>45706</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
       </c>
       <c r="F117" t="n">
         <v>10992.51</v>
@@ -18272,11 +18748,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
-        <v>45724</v>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>45724</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
       </c>
       <c r="F118" t="n">
         <v>7947.03</v>
@@ -18313,11 +18793,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
-        <v>45755</v>
-      </c>
-      <c r="E119" s="2" t="n">
-        <v>45755</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="F119" t="n">
         <v>10332</v>
@@ -18354,11 +18838,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E120" s="2" t="n">
-        <v>45782</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
       </c>
       <c r="F120" t="n">
         <v>924.96</v>
@@ -18395,11 +18883,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
-        <v>45825</v>
-      </c>
-      <c r="E121" s="2" t="n">
-        <v>45832</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
       </c>
       <c r="F121" t="n">
         <v>6207.81</v>
@@ -18436,11 +18928,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>45688</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
       </c>
       <c r="F122" t="n">
         <v>7812.96</v>
@@ -18477,11 +18973,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>45697</v>
-      </c>
-      <c r="E123" s="2" t="n">
-        <v>45697</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
       </c>
       <c r="F123" t="n">
         <v>992.61</v>
@@ -18518,11 +19018,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="E124" s="2" t="n">
-        <v>45743</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
       </c>
       <c r="F124" t="n">
         <v>2736.75</v>
@@ -18559,11 +19063,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="E125" s="2" t="n">
-        <v>45774</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
       </c>
       <c r="F125" t="n">
         <v>11175.78</v>
@@ -18600,11 +19108,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
-        <v>45789</v>
-      </c>
-      <c r="E126" s="2" t="n">
-        <v>45789</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
       </c>
       <c r="F126" t="n">
         <v>4682.61</v>
@@ -18641,11 +19153,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E127" s="2" t="n">
-        <v>45848</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
       </c>
       <c r="F127" t="n">
         <v>10557.09</v>
@@ -18682,11 +19198,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
-        <v>45683</v>
-      </c>
-      <c r="E128" s="2" t="n">
-        <v>45683</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
       </c>
       <c r="F128" t="n">
         <v>4752.72</v>
@@ -18723,11 +19243,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>45701</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="F129" t="n">
         <v>10809.24</v>
@@ -18764,11 +19288,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="E130" s="2" t="n">
-        <v>45734</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
       </c>
       <c r="F130" t="n">
         <v>10977.75</v>
@@ -18805,11 +19333,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
-        <v>45756</v>
-      </c>
-      <c r="E131" s="2" t="n">
-        <v>45756</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
       </c>
       <c r="F131" t="n">
         <v>3608.82</v>
@@ -18846,11 +19378,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
-        <v>45778</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>45785</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
       </c>
       <c r="F132" t="n">
         <v>6933.51</v>
@@ -18887,11 +19423,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>45841</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
       </c>
       <c r="F133" t="n">
         <v>11726.82</v>
@@ -18928,11 +19468,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="E134" s="2" t="n">
-        <v>45684</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
       </c>
       <c r="F134" t="n">
         <v>10550.94</v>
@@ -18969,11 +19513,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E135" s="2" t="n">
-        <v>45730</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F135" t="n">
         <v>4065.15</v>
@@ -19010,11 +19558,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>45754</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
       </c>
       <c r="F136" t="n">
         <v>4087.29</v>
@@ -19051,11 +19603,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="E137" s="2" t="n">
-        <v>45755</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="F137" t="n">
         <v>5103.27</v>
@@ -19092,11 +19648,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
-        <v>45797</v>
-      </c>
-      <c r="E138" s="2" t="n">
-        <v>45804</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
       </c>
       <c r="F138" t="n">
         <v>8764.98</v>
@@ -19123,19 +19683,25 @@
       <c r="A139" t="n">
         <v>138</v>
       </c>
-      <c r="B139" t="n">
-        <v>5299955260</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>5299955260</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E139" s="2" t="n">
-        <v>45845</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
       </c>
       <c r="F139" t="n">
         <v>1851.15</v>
@@ -19172,11 +19738,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E140" s="2" t="n">
-        <v>45658</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
       <c r="F140" t="n">
         <v>7051.59</v>
@@ -19213,11 +19783,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>45713</v>
-      </c>
-      <c r="E141" s="2" t="n">
-        <v>45713</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
       </c>
       <c r="F141" t="n">
         <v>10242.21</v>
@@ -19254,11 +19828,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>45721</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="F142" t="n">
         <v>3525.18</v>
@@ -19295,11 +19873,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
-        <v>45767</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>45774</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
       </c>
       <c r="F143" t="n">
         <v>3587.91</v>
@@ -19336,11 +19918,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>45786</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
       </c>
       <c r="F144" t="n">
         <v>4305</v>
@@ -19367,19 +19953,25 @@
       <c r="A145" t="n">
         <v>144</v>
       </c>
-      <c r="B145" t="n">
-        <v>5303156346</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>5303156346</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E145" s="2" t="n">
-        <v>45845</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
       </c>
       <c r="F145" t="n">
         <v>12270.48</v>
@@ -19416,11 +20008,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E146" s="2" t="n">
-        <v>45660</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
       </c>
       <c r="F146" t="n">
         <v>2710.92</v>
@@ -19457,11 +20053,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="E147" s="2" t="n">
-        <v>45692</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
       </c>
       <c r="F147" t="n">
         <v>5154.93</v>
@@ -19498,11 +20098,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="E148" s="2" t="n">
-        <v>45743</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
       </c>
       <c r="F148" t="n">
         <v>4102.05</v>
@@ -19539,11 +20143,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
-        <v>45761</v>
-      </c>
-      <c r="E149" s="2" t="n">
-        <v>45761</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
       </c>
       <c r="F149" t="n">
         <v>2392.35</v>
@@ -19580,11 +20188,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E150" s="2" t="n">
-        <v>45796</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
       </c>
       <c r="F150" t="n">
         <v>7730.55</v>
@@ -19621,11 +20233,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="E151" s="2" t="n">
-        <v>45809</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
       </c>
       <c r="F151" t="n">
         <v>11874.42</v>
@@ -19662,11 +20278,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E152" s="2" t="n">
-        <v>45688</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
       </c>
       <c r="F152" t="n">
         <v>10677.63</v>
@@ -19703,11 +20323,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
-        <v>45715</v>
-      </c>
-      <c r="E153" s="2" t="n">
-        <v>45715</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
       </c>
       <c r="F153" t="n">
         <v>9076.17</v>
@@ -19744,11 +20368,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E154" s="2" t="n">
-        <v>45747</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
       </c>
       <c r="F154" t="n">
         <v>4362.81</v>
@@ -19785,11 +20413,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
-        <v>45771</v>
-      </c>
-      <c r="E155" s="2" t="n">
-        <v>45771</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
       </c>
       <c r="F155" t="n">
         <v>7490.7</v>
@@ -19816,19 +20448,25 @@
       <c r="A156" t="n">
         <v>155</v>
       </c>
-      <c r="B156" t="n">
-        <v>3622250527515501</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3622250527515501</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E156" s="2" t="n">
-        <v>45804</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
       </c>
       <c r="F156" t="n">
         <v>7563.27</v>
@@ -19865,11 +20503,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
-        <v>45828</v>
-      </c>
-      <c r="E157" s="2" t="n">
-        <v>45835</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
       </c>
       <c r="F157" t="n">
         <v>22.14</v>
@@ -19906,11 +20548,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="E158" s="2" t="n">
-        <v>45663</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
       </c>
       <c r="F158" t="n">
         <v>9696.09</v>
@@ -19947,11 +20593,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="E159" s="2" t="n">
-        <v>45712</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
       </c>
       <c r="F159" t="n">
         <v>6115.56</v>
@@ -19988,11 +20638,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="E160" s="2" t="n">
-        <v>45744</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
       </c>
       <c r="F160" t="n">
         <v>10242.21</v>
@@ -20029,11 +20683,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
-        <v>45755</v>
-      </c>
-      <c r="E161" s="2" t="n">
-        <v>45762</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
       </c>
       <c r="F161" t="n">
         <v>8745.299999999999</v>
@@ -20060,19 +20718,25 @@
       <c r="A162" t="n">
         <v>161</v>
       </c>
-      <c r="B162" t="n">
-        <v>5273345434</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>5273345434</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="E162" s="2" t="n">
-        <v>45815</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
       </c>
       <c r="F162" t="n">
         <v>4736.73</v>
@@ -20109,11 +20773,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E163" s="2" t="n">
-        <v>45818</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="F163" t="n">
         <v>7301.28</v>
@@ -20150,11 +20818,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D164" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E164" s="2" t="n">
-        <v>45660</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
       </c>
       <c r="F164" t="n">
         <v>5462.43</v>
@@ -20191,11 +20863,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D165" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E165" s="2" t="n">
-        <v>45716</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F165" t="n">
         <v>1500.6</v>
@@ -20232,11 +20908,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
-        <v>45725</v>
-      </c>
-      <c r="E166" s="2" t="n">
-        <v>45725</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
       </c>
       <c r="F166" t="n">
         <v>506.76</v>
@@ -20273,11 +20953,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D167" s="2" t="n">
-        <v>45756</v>
-      </c>
-      <c r="E167" s="2" t="n">
-        <v>45756</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
       </c>
       <c r="F167" t="n">
         <v>6202.89</v>
@@ -20314,11 +20998,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
-        <v>45791</v>
-      </c>
-      <c r="E168" s="2" t="n">
-        <v>45791</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
       </c>
       <c r="F168" t="n">
         <v>7115.55</v>
@@ -20355,11 +21043,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E169" s="2" t="n">
-        <v>45824</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
       </c>
       <c r="F169" t="n">
         <v>4421.85</v>
@@ -20396,11 +21088,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="E170" s="2" t="n">
-        <v>45673</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
       </c>
       <c r="F170" t="n">
         <v>2579.31</v>
@@ -20437,11 +21133,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E171" s="2" t="n">
-        <v>45716</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F171" t="n">
         <v>12023.25</v>
@@ -20478,11 +21178,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
-        <v>45728</v>
-      </c>
-      <c r="E172" s="2" t="n">
-        <v>45742</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
       </c>
       <c r="F172" t="n">
         <v>12039.24</v>
@@ -20519,11 +21223,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="E173" s="2" t="n">
-        <v>45748</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
       </c>
       <c r="F173" t="n">
         <v>2384.97</v>
@@ -20560,11 +21268,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E174" s="2" t="n">
-        <v>45782</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
       </c>
       <c r="F174" t="n">
         <v>4674</v>
@@ -20601,11 +21313,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>45817</v>
-      </c>
-      <c r="E175" s="2" t="n">
-        <v>45831</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
       </c>
       <c r="F175" t="n">
         <v>94.70999999999999</v>
@@ -20642,11 +21358,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
-        <v>45674</v>
-      </c>
-      <c r="E176" s="2" t="n">
-        <v>45674</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
       </c>
       <c r="F176" t="n">
         <v>6477.18</v>
@@ -20683,11 +21403,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="E177" s="2" t="n">
-        <v>45709</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="F177" t="n">
         <v>6646.92</v>
@@ -20724,11 +21448,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="E178" s="2" t="n">
-        <v>45735</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
       </c>
       <c r="F178" t="n">
         <v>10996.2</v>
@@ -20765,11 +21493,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E179" s="2" t="n">
-        <v>45757</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F179" t="n">
         <v>2983.98</v>
@@ -20806,11 +21538,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="E180" s="2" t="n">
-        <v>45808</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
       </c>
       <c r="F180" t="n">
         <v>2656.8</v>
@@ -20847,11 +21583,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="E181" s="2" t="n">
-        <v>45838</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
       </c>
       <c r="F181" t="n">
         <v>8421.809999999999</v>
@@ -20888,11 +21628,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
-        <v>45669</v>
-      </c>
-      <c r="E182" s="2" t="n">
-        <v>45669</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
       </c>
       <c r="F182" t="n">
         <v>3193.08</v>
@@ -20929,11 +21673,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="E183" s="2" t="n">
-        <v>45709</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="F183" t="n">
         <v>10452.54</v>
@@ -20970,11 +21718,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E184" s="2" t="n">
-        <v>45737</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="F184" t="n">
         <v>10507.89</v>
@@ -21001,19 +21753,25 @@
       <c r="A185" t="n">
         <v>184</v>
       </c>
-      <c r="B185" t="n">
-        <v>3622250422961401</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>3622250422961401</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
-        <v>45769</v>
-      </c>
-      <c r="E185" s="2" t="n">
-        <v>45776</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
       </c>
       <c r="F185" t="n">
         <v>2217.69</v>
@@ -21050,11 +21808,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>45670</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
       </c>
       <c r="F186" t="n">
         <v>554.73</v>
@@ -21091,11 +21853,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
-        <v>45704</v>
-      </c>
-      <c r="E187" s="2" t="n">
-        <v>45704</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
       </c>
       <c r="F187" t="n">
         <v>5755.17</v>
@@ -21132,11 +21898,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>45735</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
       </c>
       <c r="F188" t="n">
         <v>10987.59</v>
@@ -21173,11 +21943,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
-        <v>45755</v>
-      </c>
-      <c r="E189" s="2" t="n">
-        <v>45755</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="F189" t="n">
         <v>6483.33</v>
@@ -21214,11 +21988,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>45809</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
       </c>
       <c r="F190" t="n">
         <v>216.48</v>
@@ -21255,11 +22033,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="E191" s="2" t="n">
-        <v>45681</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="F191" t="n">
         <v>12033.09</v>
@@ -21296,11 +22078,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>45708</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
       </c>
       <c r="F192" t="n">
         <v>1846.23</v>
@@ -21337,11 +22123,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>45761</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
       </c>
       <c r="F193" t="n">
         <v>9854.76</v>
@@ -21368,19 +22158,25 @@
       <c r="A194" t="n">
         <v>193</v>
       </c>
-      <c r="B194" t="n">
-        <v>86387</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>86387</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
-        <v>45762</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>45762</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
       </c>
       <c r="F194" t="n">
         <v>1063.95</v>
@@ -21417,11 +22213,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
-        <v>45674</v>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>45674</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
       </c>
       <c r="F195" t="n">
         <v>1841.31</v>
@@ -21458,11 +22258,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
-        <v>45705</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>45705</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
       </c>
       <c r="F196" t="n">
         <v>5186.91</v>
@@ -21499,11 +22303,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="E197" s="2" t="n">
-        <v>45735</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
       </c>
       <c r="F197" t="n">
         <v>7728.09</v>
@@ -21540,11 +22348,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>45755</v>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>45755</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="F198" t="n">
         <v>3022.11</v>
@@ -21581,11 +22393,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>45677</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
       </c>
       <c r="F199" t="n">
         <v>5003.64</v>
@@ -21622,11 +22438,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>45701</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="F200" t="n">
         <v>9591.540000000001</v>
@@ -21663,11 +22483,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
-        <v>45733</v>
-      </c>
-      <c r="E201" s="2" t="n">
-        <v>45733</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
       </c>
       <c r="F201" t="n">
         <v>8313.57</v>
@@ -21704,11 +22528,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>45757</v>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F202" t="n">
         <v>10355.37</v>
@@ -21745,11 +22573,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
-        <v>45676</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>45676</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
       </c>
       <c r="F203" t="n">
         <v>2284.11</v>
@@ -21786,11 +22618,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
-        <v>45698</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>45698</v>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="F204" t="n">
         <v>5726.88</v>
@@ -21827,11 +22663,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
-        <v>45732</v>
-      </c>
-      <c r="E205" s="2" t="n">
-        <v>45732</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
       </c>
       <c r="F205" t="n">
         <v>9253.290000000001</v>
@@ -21868,11 +22708,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>45749</v>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
       </c>
       <c r="F206" t="n">
         <v>7697.34</v>
@@ -21909,11 +22753,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>45680</v>
-      </c>
-      <c r="E207" s="2" t="n">
-        <v>45680</v>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
       </c>
       <c r="F207" t="n">
         <v>825.33</v>
@@ -21950,11 +22798,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
-        <v>45697</v>
-      </c>
-      <c r="E208" s="2" t="n">
-        <v>45697</v>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
       </c>
       <c r="F208" t="n">
         <v>1592.85</v>
@@ -21991,11 +22843,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E209" s="2" t="n">
-        <v>45737</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="F209" t="n">
         <v>8665.35</v>
@@ -22032,11 +22888,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="E210" s="2" t="n">
-        <v>45773</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
       </c>
       <c r="F210" t="n">
         <v>8495.610000000001</v>
@@ -22073,11 +22933,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="E211" s="2" t="n">
-        <v>45681</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="F211" t="n">
         <v>11218.83</v>
@@ -22114,11 +22978,15 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="E212" s="2" t="n">
-        <v>45702</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
       </c>
       <c r="F212" t="n">
         <v>5865.87</v>
@@ -22155,11 +23023,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="E213" s="2" t="n">
-        <v>45736</v>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
       </c>
       <c r="F213" t="n">
         <v>12199.14</v>
@@ -22196,11 +23068,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
-        <v>45752</v>
-      </c>
-      <c r="E214" s="2" t="n">
-        <v>45752</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
       </c>
       <c r="F214" t="n">
         <v>8543.58</v>
@@ -22237,11 +23113,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
-        <v>45687</v>
-      </c>
-      <c r="E215" s="2" t="n">
-        <v>45687</v>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
       </c>
       <c r="F215" t="n">
         <v>5843.73</v>
@@ -22278,11 +23158,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="E216" s="2" t="n">
-        <v>45702</v>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
       </c>
       <c r="F216" t="n">
         <v>4261.95</v>
@@ -22319,11 +23203,15 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="E217" s="2" t="n">
-        <v>45730</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F217" t="n">
         <v>9494.370000000001</v>
@@ -22360,11 +23248,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
-        <v>45777</v>
-      </c>
-      <c r="E218" s="2" t="n">
-        <v>45777</v>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
       </c>
       <c r="F218" t="n">
         <v>11945.76</v>
@@ -22401,11 +23293,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
-        <v>45683</v>
-      </c>
-      <c r="E219" s="2" t="n">
-        <v>45683</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
       </c>
       <c r="F219" t="n">
         <v>5901.54</v>
@@ -22442,11 +23338,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="E220" s="2" t="n">
-        <v>45695</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F220" t="n">
         <v>11659.17</v>
@@ -22483,11 +23383,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E221" s="2" t="n">
-        <v>45726</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F221" t="n">
         <v>11122.89</v>
@@ -22524,11 +23428,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
-        <v>45761</v>
-      </c>
-      <c r="E222" s="2" t="n">
-        <v>45761</v>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
       </c>
       <c r="F222" t="n">
         <v>2969.22</v>
@@ -22565,11 +23473,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E223" s="2" t="n">
-        <v>45688</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
       </c>
       <c r="F223" t="n">
         <v>2140.2</v>
@@ -22606,11 +23518,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
-        <v>45690</v>
-      </c>
-      <c r="E224" s="2" t="n">
-        <v>45690</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
       </c>
       <c r="F224" t="n">
         <v>7999.92</v>
@@ -22647,11 +23563,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="E225" s="2" t="n">
-        <v>45729</v>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
       </c>
       <c r="F225" t="n">
         <v>7081.11</v>
@@ -22688,11 +23608,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="E226" s="2" t="n">
-        <v>45684</v>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
       </c>
       <c r="F226" t="n">
         <v>1008.6</v>
@@ -22729,11 +23653,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="E227" s="2" t="n">
-        <v>45691</v>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
       </c>
       <c r="F227" t="n">
         <v>10720.68</v>
@@ -22770,11 +23698,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="E228" s="2" t="n">
-        <v>45730</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F228" t="n">
         <v>4961.82</v>
@@ -22811,11 +23743,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E229" s="2" t="n">
-        <v>45660</v>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
       </c>
       <c r="F229" t="n">
         <v>4351.74</v>
@@ -22852,11 +23788,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="E230" s="2" t="n">
-        <v>45694</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="F230" t="n">
         <v>2193.09</v>
@@ -22893,11 +23833,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>45722</v>
-      </c>
-      <c r="E231" s="2" t="n">
-        <v>45722</v>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
       </c>
       <c r="F231" t="n">
         <v>5172.15</v>
@@ -22934,11 +23878,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E232" s="2" t="n">
-        <v>45658</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
       <c r="F232" t="n">
         <v>10580.46</v>
@@ -22975,11 +23923,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="E233" s="2" t="n">
-        <v>45695</v>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F233" t="n">
         <v>11434.08</v>
@@ -23016,11 +23968,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E234" s="2" t="n">
-        <v>45737</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="F234" t="n">
         <v>7140.15</v>
@@ -23057,11 +24013,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="E235" s="2" t="n">
-        <v>45663</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
       </c>
       <c r="F235" t="n">
         <v>9015.9</v>
@@ -23088,19 +24048,25 @@
       <c r="A236" t="n">
         <v>235</v>
       </c>
-      <c r="B236" t="n">
-        <v>2975489</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2975489</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
-        <v>45706</v>
-      </c>
-      <c r="E236" s="2" t="n">
-        <v>45706</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
       </c>
       <c r="F236" t="n">
         <v>3478.44</v>
@@ -23137,11 +24103,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="E237" s="2" t="n">
-        <v>45730</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F237" t="n">
         <v>2900.34</v>
@@ -23178,11 +24148,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E238" s="2" t="n">
-        <v>45660</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
       </c>
       <c r="F238" t="n">
         <v>6870.78</v>
@@ -23219,11 +24193,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E239" s="2" t="n">
-        <v>45716</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F239" t="n">
         <v>2062.71</v>
@@ -23260,11 +24238,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="E240" s="2" t="n">
-        <v>45736</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
       </c>
       <c r="F240" t="n">
         <v>10518.96</v>
@@ -23301,11 +24283,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E241" s="2" t="n">
-        <v>45688</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
       </c>
       <c r="F241" t="n">
         <v>12014.64</v>
@@ -23342,11 +24328,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
-        <v>45711</v>
-      </c>
-      <c r="E242" s="2" t="n">
-        <v>45711</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
       </c>
       <c r="F242" t="n">
         <v>10902.72</v>
@@ -23383,11 +24373,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="E243" s="2" t="n">
-        <v>45730</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="F243" t="n">
         <v>7378.77</v>
@@ -23424,11 +24418,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="E244" s="2" t="n">
-        <v>45670</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
       </c>
       <c r="F244" t="n">
         <v>12136.41</v>
@@ -23465,11 +24463,15 @@
           <t>Impuls Agencja Kreatywna</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
-        <v>45715</v>
-      </c>
-      <c r="E245" s="2" t="n">
-        <v>45715</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
       </c>
       <c r="F245" t="n">
         <v>12186.84</v>
@@ -23506,11 +24508,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
-        <v>45732</v>
-      </c>
-      <c r="E246" s="2" t="n">
-        <v>45732</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
       </c>
       <c r="F246" t="n">
         <v>8307.42</v>
@@ -23547,11 +24553,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E247" s="2" t="n">
-        <v>45667</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F247" t="n">
         <v>10959.3</v>
@@ -23588,11 +24598,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E248" s="2" t="n">
-        <v>45716</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F248" t="n">
         <v>5993.79</v>
@@ -23629,11 +24643,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
-        <v>45733</v>
-      </c>
-      <c r="E249" s="2" t="n">
-        <v>45733</v>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
       </c>
       <c r="F249" t="n">
         <v>1043.04</v>
@@ -23670,11 +24688,15 @@
           <t>Pomorska Perła Hotele</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E250" s="2" t="n">
-        <v>45667</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F250" t="n">
         <v>1426.8</v>
@@ -23711,11 +24733,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="E251" s="2" t="n">
-        <v>45712</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
       </c>
       <c r="F251" t="n">
         <v>10259.43</v>
@@ -23752,11 +24778,15 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>45729</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
       </c>
       <c r="F252" t="n">
         <v>11607.51</v>
@@ -23793,11 +24823,15 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
-        <v>45669</v>
-      </c>
-      <c r="E253" s="2" t="n">
-        <v>45669</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
       </c>
       <c r="F253" t="n">
         <v>7220.1</v>
@@ -23834,11 +24868,15 @@
           <t>Atlas Geodezja</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="E254" s="2" t="n">
-        <v>45716</v>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
       </c>
       <c r="F254" t="n">
         <v>5810.52</v>
@@ -23875,11 +24913,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E255" s="2" t="n">
-        <v>45726</v>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F255" t="n">
         <v>10606.29</v>
@@ -23916,11 +24958,15 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E256" s="2" t="n">
-        <v>45666</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
       </c>
       <c r="F256" t="n">
         <v>4317.3</v>
@@ -23957,11 +25003,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="E257" s="2" t="n">
-        <v>45709</v>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="F257" t="n">
         <v>8720.700000000001</v>
@@ -23998,11 +25048,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
-        <v>45722</v>
-      </c>
-      <c r="E258" s="2" t="n">
-        <v>45722</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
       </c>
       <c r="F258" t="n">
         <v>11863.35</v>
@@ -24039,11 +25093,15 @@
           <t>Quantum Finanse</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
-        <v>45680</v>
-      </c>
-      <c r="E259" s="2" t="n">
-        <v>45680</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
       </c>
       <c r="F259" t="n">
         <v>977.85</v>
@@ -24080,11 +25138,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="E260" s="2" t="n">
-        <v>45709</v>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
       </c>
       <c r="F260" t="n">
         <v>4669.08</v>
@@ -24121,11 +25183,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="E261" s="2" t="n">
-        <v>45719</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
       </c>
       <c r="F261" t="n">
         <v>9263.129999999999</v>
@@ -24162,11 +25228,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="E262" s="2" t="n">
-        <v>45677</v>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
       </c>
       <c r="F262" t="n">
         <v>6943.35</v>
@@ -24203,11 +25273,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
-        <v>45705</v>
-      </c>
-      <c r="E263" s="2" t="n">
-        <v>45705</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
       </c>
       <c r="F263" t="n">
         <v>8597.700000000001</v>
@@ -24244,11 +25318,15 @@
           <t>Złoty Róg Catering</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
-        <v>45725</v>
-      </c>
-      <c r="E264" s="2" t="n">
-        <v>45725</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
       </c>
       <c r="F264" t="n">
         <v>3185.7</v>
@@ -24285,11 +25363,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="E265" s="2" t="n">
-        <v>45681</v>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="F265" t="n">
         <v>5152.47</v>
@@ -24326,11 +25408,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
-        <v>45704</v>
-      </c>
-      <c r="E266" s="2" t="n">
-        <v>45704</v>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
       </c>
       <c r="F266" t="n">
         <v>2391.12</v>
@@ -24367,11 +25453,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
-        <v>45718</v>
-      </c>
-      <c r="E267" s="2" t="n">
-        <v>45718</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
       </c>
       <c r="F267" t="n">
         <v>6581.73</v>
@@ -24408,11 +25498,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="E268" s="2" t="n">
-        <v>45681</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
       </c>
       <c r="F268" t="n">
         <v>7261.92</v>
@@ -24449,11 +25543,15 @@
           <t>Solaris Energy Group</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="E269" s="2" t="n">
-        <v>45708</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
       </c>
       <c r="F269" t="n">
         <v>10913.79</v>
@@ -24490,11 +25588,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E270" s="2" t="n">
-        <v>45737</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="F270" t="n">
         <v>3804.39</v>
@@ -24531,11 +25633,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
-        <v>45664</v>
-      </c>
-      <c r="E271" s="2" t="n">
-        <v>45664</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
       </c>
       <c r="F271" t="n">
         <v>11778.48</v>
@@ -24572,11 +25678,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="E272" s="2" t="n">
-        <v>45701</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
       </c>
       <c r="F272" t="n">
         <v>11542.32</v>
@@ -24613,11 +25723,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="E273" s="2" t="n">
-        <v>45737</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
       <c r="F273" t="n">
         <v>11122.89</v>
@@ -24654,11 +25768,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="E274" s="2" t="n">
-        <v>45702</v>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
       </c>
       <c r="F274" t="n">
         <v>130.38</v>
@@ -24695,11 +25813,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="E275" s="2" t="n">
-        <v>45747</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
       </c>
       <c r="F275" t="n">
         <v>9106.92</v>
@@ -24736,11 +25858,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
-        <v>45662</v>
-      </c>
-      <c r="E276" s="2" t="n">
-        <v>45662</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
       </c>
       <c r="F276" t="n">
         <v>4717.05</v>
@@ -24777,11 +25903,15 @@
           <t>Zielona Energia Polska</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
-        <v>45698</v>
-      </c>
-      <c r="E277" s="2" t="n">
-        <v>45698</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="F277" t="n">
         <v>110.7</v>
@@ -24818,11 +25948,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
-        <v>45727</v>
-      </c>
-      <c r="E278" s="2" t="n">
-        <v>45727</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
       </c>
       <c r="F278" t="n">
         <v>10133.97</v>
@@ -24859,11 +25993,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E279" s="2" t="n">
-        <v>45698</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="F279" t="n">
         <v>2517.81</v>
@@ -24900,11 +26038,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="E280" s="2" t="n">
-        <v>45702</v>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
       </c>
       <c r="F280" t="n">
         <v>6756.39</v>
@@ -24941,11 +26083,15 @@
           <t>Nexus Technologies</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="E281" s="2" t="n">
-        <v>45721</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="F281" t="n">
         <v>12212.67</v>
@@ -24982,11 +26128,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
-        <v>45680</v>
-      </c>
-      <c r="E282" s="2" t="n">
-        <v>45694</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="F282" t="n">
         <v>8348.01</v>
@@ -25023,11 +26173,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
-        <v>45697</v>
-      </c>
-      <c r="E283" s="2" t="n">
-        <v>45697</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
       </c>
       <c r="F283" t="n">
         <v>2292.72</v>
@@ -25064,11 +26218,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
-        <v>45671</v>
-      </c>
-      <c r="E284" s="2" t="n">
-        <v>45685</v>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
       </c>
       <c r="F284" t="n">
         <v>8646.9</v>
@@ -25105,11 +26263,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="E285" s="2" t="n">
-        <v>45694</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="F285" t="n">
         <v>3712.14</v>
@@ -25146,11 +26308,15 @@
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
-        <v>45664</v>
-      </c>
-      <c r="E286" s="2" t="n">
-        <v>45671</v>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
       </c>
       <c r="F286" t="n">
         <v>5493.18</v>
@@ -25187,11 +26353,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
-        <v>45690</v>
-      </c>
-      <c r="E287" s="2" t="n">
-        <v>45690</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
       </c>
       <c r="F287" t="n">
         <v>6881.85</v>
@@ -25228,11 +26398,15 @@
           <t>Błękitny Horyzont Marketing</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E288" s="2" t="n">
-        <v>45667</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F288" t="n">
         <v>9830.16</v>
@@ -25269,11 +26443,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="E289" s="2" t="n">
-        <v>45695</v>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F289" t="n">
         <v>10863.36</v>
@@ -25310,11 +26488,15 @@
           <t>Fenix Consulting</t>
         </is>
       </c>
-      <c r="D290" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E290" s="2" t="n">
-        <v>45672</v>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
       </c>
       <c r="F290" t="n">
         <v>4996.26</v>
@@ -25351,11 +26533,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="E291" s="2" t="n">
-        <v>45691</v>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
       </c>
       <c r="F291" t="n">
         <v>6434.13</v>
@@ -25392,11 +26578,15 @@
           <t>Majewski-Trans Logistyka</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
-        <v>45659</v>
-      </c>
-      <c r="E292" s="2" t="n">
-        <v>45666</v>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
       </c>
       <c r="F292" t="n">
         <v>4074.99</v>
@@ -25433,11 +26623,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="E293" s="2" t="n">
-        <v>45695</v>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
       </c>
       <c r="F293" t="n">
         <v>2360.37</v>
@@ -25474,11 +26668,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D294" s="2" t="n">
-        <v>45707</v>
-      </c>
-      <c r="E294" s="2" t="n">
-        <v>45707</v>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
       </c>
       <c r="F294" t="n">
         <v>3559.62</v>
@@ -25515,11 +26713,15 @@
           <t>Bud-Pol Konstrukcje</t>
         </is>
       </c>
-      <c r="D295" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="E295" s="2" t="n">
-        <v>45693</v>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
       <c r="F295" t="n">
         <v>4672.77</v>
@@ -25556,11 +26758,15 @@
           <t>Inter-Stal Dystrybucja</t>
         </is>
       </c>
-      <c r="D296" s="2" t="n">
-        <v>45710</v>
-      </c>
-      <c r="E296" s="2" t="n">
-        <v>45710</v>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
       </c>
       <c r="F296" t="n">
         <v>6751.47</v>
@@ -25597,11 +26803,15 @@
           <t>Karpackie Źródło S.A.</t>
         </is>
       </c>
-      <c r="D297" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="E297" s="2" t="n">
-        <v>45693</v>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
       <c r="F297" t="n">
         <v>5889.24</v>
@@ -25628,19 +26838,25 @@
       <c r="A298" t="n">
         <v>297</v>
       </c>
-      <c r="B298" t="n">
-        <v>3070250226471903</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>3070250226471903</t>
+        </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
           <t>Pol-Drew Tartak</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="E298" s="2" t="n">
-        <v>45721</v>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="F298" t="n">
         <v>4396.02</v>
@@ -25677,11 +26893,15 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D299" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E299" s="2" t="n">
-        <v>45667</v>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F299" t="n">
         <v>2271.81</v>
@@ -25716,11 +26936,15 @@
           <t>Nova-Med Centrum Zdrowia</t>
         </is>
       </c>
-      <c r="D300" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E300" s="2" t="n">
-        <v>45667</v>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F300" t="n">
         <v>5040.54</v>
@@ -25755,11 +26979,15 @@
           <t>Solidny Dach Dąbrowski</t>
         </is>
       </c>
-      <c r="D301" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E301" s="2" t="n">
-        <v>45667</v>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F301" t="n">
         <v>5848.65</v>
@@ -25794,11 +27022,15 @@
           <t>Eko-Farm Przetwórstwo</t>
         </is>
       </c>
-      <c r="D302" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E302" s="2" t="n">
-        <v>45667</v>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F302" t="n">
         <v>2553.48</v>
@@ -25833,11 +27065,15 @@
           <t>Wulkan-Plast Sp. z o.o.</t>
         </is>
       </c>
-      <c r="D303" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E303" s="2" t="n">
-        <v>45667</v>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="F303" t="n">
         <v>1924.95</v>
@@ -25872,11 +27108,15 @@
           <t>Centurion Ochrona Mienia</t>
         </is>
       </c>
-      <c r="D304" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="E304" s="2" t="n">
-        <v>45702</v>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
       </c>
       <c r="F304" t="n">
         <v>3140.19</v>
@@ -25911,8 +27151,10 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D305" s="2" t="n">
-        <v>45698</v>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
@@ -25948,8 +27190,10 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D306" s="2" t="n">
-        <v>45698</v>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
@@ -25985,8 +27229,10 @@
           <t>Vesta Budownictwo</t>
         </is>
       </c>
-      <c r="D307" s="2" t="n">
-        <v>45698</v>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
@@ -26022,8 +27268,10 @@
           <t>Kujawska Piekarnia Rzemieślnicza</t>
         </is>
       </c>
-      <c r="D308" s="2" t="n">
-        <v>45698</v>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="n">
@@ -26059,8 +27307,10 @@
           <t>Glob-Met Handel</t>
         </is>
       </c>
-      <c r="D309" s="2" t="n">
-        <v>45698</v>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
@@ -26096,8 +27346,10 @@
           <t>Szybka Paczka Usługi Kurierskie</t>
         </is>
       </c>
-      <c r="D310" s="2" t="n">
-        <v>45698</v>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="n">
@@ -26133,11 +27385,15 @@
           <t>Agro-Produkt Wschód</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E311" s="2" t="n">
-        <v>45726</v>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F311" t="n">
         <v>5774.85</v>
@@ -26172,11 +27428,15 @@
           <t>Magnat Nieruchomości</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E312" s="2" t="n">
-        <v>45726</v>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F312" t="n">
         <v>5131.56</v>
@@ -26211,11 +27471,15 @@
           <t>Wiśniewski i Wspólnicy Kancelaria</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E313" s="2" t="n">
-        <v>45726</v>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F313" t="n">
         <v>1860.99</v>
@@ -26250,11 +27514,15 @@
           <t>Fabryka Mebli "Komfort"</t>
         </is>
       </c>
-      <c r="D314" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E314" s="2" t="n">
-        <v>45726</v>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F314" t="n">
         <v>6245.94</v>
@@ -26289,11 +27557,15 @@
           <t>Aeterna IT Solutions</t>
         </is>
       </c>
-      <c r="D315" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E315" s="2" t="n">
-        <v>45726</v>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F315" t="n">
         <v>3059.01</v>
@@ -26328,11 +27600,15 @@
           <t>Moto-Max Serwis</t>
         </is>
       </c>
-      <c r="D316" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="E316" s="2" t="n">
-        <v>45726</v>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
       </c>
       <c r="F316" t="n">
         <v>4129.11</v>
@@ -26367,11 +27643,15 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D317" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E317" s="2" t="n">
-        <v>45757</v>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F317" t="n">
         <v>6146.31</v>
@@ -26406,11 +27686,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D318" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E318" s="2" t="n">
-        <v>45757</v>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F318" t="n">
         <v>11912.55</v>
@@ -26445,11 +27729,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D319" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E319" s="2" t="n">
-        <v>45757</v>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F319" t="n">
         <v>8858.459999999999</v>
@@ -26484,11 +27772,15 @@
           <t>Arkadia Deweloper</t>
         </is>
       </c>
-      <c r="D320" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E320" s="2" t="n">
-        <v>45757</v>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F320" t="n">
         <v>1934.79</v>
@@ -26523,11 +27815,15 @@
           <t>Jantar-Foods</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E321" s="2" t="n">
-        <v>45757</v>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F321" t="n">
         <v>3624.81</v>
@@ -26562,11 +27858,15 @@
           <t>Vertigo Digital Marketing</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
-        <v>45757</v>
-      </c>
-      <c r="E322" s="2" t="n">
-        <v>45757</v>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
       </c>
       <c r="F322" t="n">
         <v>3708.45</v>
@@ -26601,11 +27901,15 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="E323" s="2" t="n">
-        <v>45787</v>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F323" t="n">
         <v>7579.26</v>
@@ -26640,11 +27944,15 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="E324" s="2" t="n">
-        <v>45787</v>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F324" t="n">
         <v>8062.65</v>
@@ -26679,11 +27987,15 @@
           <t>Tytan-Stal Konstrukcje Stalowe</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="E325" s="2" t="n">
-        <v>45787</v>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F325" t="n">
         <v>6243.48</v>
@@ -26718,11 +28030,15 @@
           <t>Harmonia SPA &amp; Wellness</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
-        <v>45787</v>
-      </c>
-      <c r="E326" s="2" t="n">
-        <v>45787</v>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
       </c>
       <c r="F326" t="n">
         <v>2983.98</v>
@@ -26757,8 +28073,10 @@
           <t>Północ-Południe Spedycja</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
-        <v>45818</v>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="n">
@@ -26794,8 +28112,10 @@
           <t>Kreo-Graf Studio Graficzne</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
-        <v>45818</v>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="n">
@@ -26831,8 +28151,10 @@
           <t>Antracyt-Handel Węglem</t>
         </is>
       </c>
-      <c r="D329" s="2" t="n">
-        <v>45818</v>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
@@ -26868,8 +28190,10 @@
           <t>Lider-Chem Produkcja</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>45818</v>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="n">
@@ -26905,8 +28229,10 @@
           <t>Galicja-Import</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>45818</v>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
       </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="n">
